--- a/Tests/UnderReview/Sorghum/obs/DailyObserved.xlsx
+++ b/Tests/UnderReview/Sorghum/obs/DailyObserved.xlsx
@@ -232,40 +232,40 @@
     <t xml:space="preserve">IcrisatBW5CvQL41xQL36FertLowIrrigLow</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_BW8_GxE_T2</t>
+    <t xml:space="preserve">IcrisatBW8CvCSH13RFertHighIrrigOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_BW8_GxE_T1</t>
+    <t xml:space="preserve">IcrisatBW8CvM35-1FertHighIrrigOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_BW8_GxE_T3</t>
+    <t xml:space="preserve">IcrisatBW8CvAtx623xRTx430FertHighIrrigOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_BW8_GxE_T4</t>
+    <t xml:space="preserve">IcrisatBW8CvQL41xQL36FertHighIrrigOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_BW8_GxE_T5</t>
+    <t xml:space="preserve">IcrisatBW8CvM35-1FertMedIrrigOff</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_BW8_GxE_T6</t>
+    <t xml:space="preserve">IcrisatBW8CvCSH13RFertMedIrrigOff</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_BW8_GxE_T7</t>
+    <t xml:space="preserve">IcrisatBW8CvATX623xRTX430FertMedIrrigOff</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_BW8_GxE_T8</t>
+    <t xml:space="preserve">IcrisatBW8CvQL41xQL36FertMedIrrigOff</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_BW8_GxE_T9</t>
+    <t xml:space="preserve">IcrisatBW8CvM35-1FertLowIrrigOff</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_BW8_GxE_T10</t>
+    <t xml:space="preserve">IcrisatBW8CvCSH13RFertLowIrrigOff</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_BW8_GxE_T11</t>
+    <t xml:space="preserve">IcrisatBW8CvATX623xRTX430FertLowIrrigOff</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_BW8_GxE_T12</t>
+    <t xml:space="preserve">IcrisatBW8CvQL41xQL36FertLowIrrigOff</t>
   </si>
   <si>
     <t xml:space="preserve">Hermitage1996FertHighIrrigOnCvBuster</t>
@@ -608,10 +608,10 @@
   <dimension ref="A1:BE2195"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="26" sqref="B10 B28 B46 B57 B69 B77 B87 B99 B107 B119 B140 B148 B152 B154 B163 B175 B187 B195 B205 B217 B231 B242 B260 B270 B277 B293 I14"/>
+      <selection pane="topLeft" activeCell="L14" activeCellId="28" sqref="B307 B330 B338 B352 B356 B366 B378 B386 B396 B408 B416 B426 B441 B449 B454 B465 B477 B489 B496 B506 B518 B526 B540 B546 B557 B560 B573 B592 L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.86"/>

--- a/Tests/UnderReview/Sorghum/obs/DailyObserved.xlsx
+++ b/Tests/UnderReview/Sorghum/obs/DailyObserved.xlsx
@@ -358,13 +358,13 @@
     <t xml:space="preserve">Sorghum_LE13_M35-1+I+N</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_LE14_Buster</t>
+    <t xml:space="preserve">Lawes1996EarlyCvBuster</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_LE14_QL41xQL36</t>
+    <t xml:space="preserve">Lawes1996EarlyCvQL41xQL36</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_LE14_M35-1</t>
+    <t xml:space="preserve">Lawes1996EarlyCvM351-1</t>
   </si>
   <si>
     <t xml:space="preserve">Sorghum_LE15_Buster</t>
@@ -608,7 +608,7 @@
   <dimension ref="A1:BE2195"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L14" activeCellId="28" sqref="B307 B330 B338 B352 B356 B366 B378 B386 B396 B408 B416 B426 B441 B449 B454 B465 B477 B489 B496 B506 B518 B526 B540 B546 B557 B560 B573 B592 L14"/>
+      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Tests/UnderReview/Sorghum/obs/DailyObserved.xlsx
+++ b/Tests/UnderReview/Sorghum/obs/DailyObserved.xlsx
@@ -340,22 +340,22 @@
     <t xml:space="preserve">Hermitage1997FertLowIrrigLowCvCSH13R</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_LE13_Buster-I-N</t>
+    <t xml:space="preserve">Lawes1995FertLowirrigOffCvBuster</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_LE13_Buster-I+N</t>
+    <t xml:space="preserve">Lawes1995FertHighIrrigOffCvBuster</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_LE13_Buster+I+N</t>
+    <t xml:space="preserve">Lawes1995FertHighIrrigOnCvBuster</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_LE13_M35-1-I-N</t>
+    <t xml:space="preserve">Lawes1995FertLowIrrigOffCvM351</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_LE13_M35-1-I+N</t>
+    <t xml:space="preserve">Lawes1995FertHighIrrigOffCvM351</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_LE13_M35-1+I+N</t>
+    <t xml:space="preserve">Lawes1995FertHighIrrigOnCvM351</t>
   </si>
   <si>
     <t xml:space="preserve">Lawes1996EarlyCvBuster</t>
@@ -608,7 +608,7 @@
   <dimension ref="A1:BE2195"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+      <selection pane="topLeft" activeCell="L16" activeCellId="22" sqref="B1354 B1360 B1366 B1375 B1381 B1387 B1394 B1400 B1406 B1416 B1419 B1421 B1427:B1428 B1436 B1444 B1450 B1460 B1468 B1470 B1472:B1473 B1476 B1478 L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Tests/UnderReview/Sorghum/obs/DailyObserved.xlsx
+++ b/Tests/UnderReview/Sorghum/obs/DailyObserved.xlsx
@@ -367,13 +367,13 @@
     <t xml:space="preserve">Lawes1996EarlyCvM351-1</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_LE15_Buster</t>
+    <t xml:space="preserve">Lawes1996LateCvBuster</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_LE15_QL41xQL36</t>
+    <t xml:space="preserve">Lawes1996LateCvQL41xQL36</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_LE15_M35-1</t>
+    <t xml:space="preserve">Lawes1996LateCvM351</t>
   </si>
   <si>
     <t xml:space="preserve">Sorghum_LE17_T1</t>
@@ -607,8 +607,8 @@
   </sheetPr>
   <dimension ref="A1:BE2195"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L16" activeCellId="22" sqref="B1354 B1360 B1366 B1375 B1381 B1387 B1394 B1400 B1406 B1416 B1419 B1421 B1427:B1428 B1436 B1444 B1450 B1460 B1468 B1470 B1472:B1473 B1476 B1478 L16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I110" activeCellId="0" sqref="I110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Tests/UnderReview/Sorghum/obs/DailyObserved.xlsx
+++ b/Tests/UnderReview/Sorghum/obs/DailyObserved.xlsx
@@ -376,13 +376,13 @@
     <t xml:space="preserve">Lawes1996LateCvM351</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_LE17_T1</t>
+    <t xml:space="preserve">Lawes1997LateCvBuster</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_LE17_T3</t>
+    <t xml:space="preserve">Lawes1997LateCvCSH13R</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_LE17_T2</t>
+    <t xml:space="preserve">Lawes1997LateCvM351</t>
   </si>
   <si>
     <t xml:space="preserve">Sorghum_LE19_T3</t>
@@ -608,7 +608,7 @@
   <dimension ref="A1:BE2195"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I110" activeCellId="0" sqref="I110"/>
+      <selection pane="topLeft" activeCell="M96" activeCellId="20" sqref="B1638 B1640 B1643 B1646 B1648:B1649 B1652 B1655 B1658 B1661 B1664 B1667 B1671:B1672 B1675 B1678 B1683 B1686 B1689 B1692 B1695:B1696 B1699 M96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Tests/UnderReview/Sorghum/obs/DailyObserved.xlsx
+++ b/Tests/UnderReview/Sorghum/obs/DailyObserved.xlsx
@@ -385,28 +385,28 @@
     <t xml:space="preserve">Lawes1997LateCvM351</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_LE19_T3</t>
+    <t xml:space="preserve">Lawes1998FertMedBuster</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_LE19_T6</t>
+    <t xml:space="preserve">Lawes1998FertLowCSH13R</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_LE19_T1</t>
+    <t xml:space="preserve">Lawes1998FertOffBuster</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_LE19_T2</t>
+    <t xml:space="preserve">Lawes1998FertLowBuster</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_LE19_T4</t>
+    <t xml:space="preserve">Lawes1998FertHighBuster</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_LE19_T5</t>
+    <t xml:space="preserve">Lawes1998FertOffCSH13R</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_LE19_T7</t>
+    <t xml:space="preserve">Lawes1998FertMedCSH13R</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_LE19_T8</t>
+    <t xml:space="preserve">Lawes1998FertHighCSH13R</t>
   </si>
   <si>
     <t xml:space="preserve">Sorghum_Gatton_RUE_2</t>
@@ -608,7 +608,7 @@
   <dimension ref="A1:BE2195"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M96" activeCellId="20" sqref="B1638 B1640 B1643 B1646 B1648:B1649 B1652 B1655 B1658 B1661 B1664 B1667 B1671:B1672 B1675 B1678 B1683 B1686 B1689 B1692 B1695:B1696 B1699 M96"/>
+      <selection pane="topLeft" activeCell="I99" activeCellId="0" sqref="I99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Tests/UnderReview/Sorghum/obs/DailyObserved.xlsx
+++ b/Tests/UnderReview/Sorghum/obs/DailyObserved.xlsx
@@ -409,31 +409,31 @@
     <t xml:space="preserve">Lawes1998FertHighCSH13R</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_Gatton_RUE_2</t>
+    <t xml:space="preserve">Lawes1999FertLowCvA35xQL36</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_Gatton_RUE_8</t>
+    <t xml:space="preserve">Lawes1999FertHighCvA35xQL36</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_Gatton_RUE_1</t>
+    <t xml:space="preserve">Lawes1999FertLowCvCSH13R</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_Gatton_RUE_3</t>
+    <t xml:space="preserve">Lawes1999FertLowCvQL39xQL36</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_Gatton_RUE_4</t>
+    <t xml:space="preserve">Lawes1999FertMedCvCSH13R</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_Gatton_RUE_5</t>
+    <t xml:space="preserve">Lawes1999FertMedCvA35xQL36</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_Gatton_RUE_6</t>
+    <t xml:space="preserve">Lawes1999FertMedCvQL39xQL36</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_Gatton_RUE_9</t>
+    <t xml:space="preserve">Lawes1999FertHighCvQL39xQL36</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorghum_Gatton_RUE_7</t>
+    <t xml:space="preserve">Lawes1999FertHighCvCSH13R</t>
   </si>
 </sst>
 </file>
@@ -608,7 +608,7 @@
   <dimension ref="A1:BE2195"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I99" activeCellId="0" sqref="I99"/>
+      <selection pane="topLeft" activeCell="O98" activeCellId="32" sqref="B1899 B1910 B1919 B1928 B1935 B1939 B1941 B1950 B1959 B1973 B1982 B1991 B1993 B1997 B2007 B2021 B2031 B2035 B2038 B2050 B2065 B2078 B2095 B2105 B2114 B2123 B2132 B2141 B2143 B2152 B2154 B2171 O98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Tests/UnderReview/Sorghum/obs/DailyObserved.xlsx
+++ b/Tests/UnderReview/Sorghum/obs/DailyObserved.xlsx
@@ -364,7 +364,7 @@
     <t xml:space="preserve">Lawes1996EarlyCvQL41xQL36</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1996EarlyCvM351-1</t>
+    <t xml:space="preserve">Lawes1996EarlyCvM351</t>
   </si>
   <si>
     <t xml:space="preserve">Lawes1996LateCvBuster</t>
@@ -385,55 +385,55 @@
     <t xml:space="preserve">Lawes1997LateCvM351</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1998FertMedBuster</t>
+    <t xml:space="preserve">Lawes1998FertMedCvBuster</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1998FertLowCSH13R</t>
+    <t xml:space="preserve">Lawes1998FertLowCvCSH13R</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1998FertOffBuster</t>
+    <t xml:space="preserve">Lawes1998FertOffCvBuster</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1998FertLowBuster</t>
+    <t xml:space="preserve">Lawes1998FertLowCvBuster</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1998FertHighBuster</t>
+    <t xml:space="preserve">Lawes1998FertHighCvBuster</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1998FertOffCSH13R</t>
+    <t xml:space="preserve">Lawes1998FertOffCvCSH13R</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1998FertMedCSH13R</t>
+    <t xml:space="preserve">Lawes1998FertMedCvCSH13R</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1998FertHighCSH13R</t>
+    <t xml:space="preserve">Lawes1998FertHighCvCSH13R</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1999FertLowCvA35xQL36</t>
+    <t xml:space="preserve">Lawes1999CvA35xQL36FertLow</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1999FertHighCvA35xQL36</t>
+    <t xml:space="preserve">Lawes1999CvA35xQL36FertHigh</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1999FertLowCvCSH13R</t>
+    <t xml:space="preserve">Lawes1999CvCSH13RFertLow</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1999FertLowCvQL39xQL36</t>
+    <t xml:space="preserve">Lawes1999CvQL39xQL36FertLow</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1999FertMedCvCSH13R</t>
+    <t xml:space="preserve">Lawes1999CvCSH13RFertMed</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1999FertMedCvA35xQL36</t>
+    <t xml:space="preserve">Lawes1999CvA35xQL36FertMed</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1999FertMedCvQL39xQL36</t>
+    <t xml:space="preserve">Lawes1999CvQL39xQL36FertMed</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1999FertHighCvQL39xQL36</t>
+    <t xml:space="preserve">Lawes1999CvQL39xQL36FertHigh</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1999FertHighCvCSH13R</t>
+    <t xml:space="preserve">Lawes1999CvCSH13RFertHigh</t>
   </si>
 </sst>
 </file>
@@ -607,8 +607,8 @@
   </sheetPr>
   <dimension ref="A1:BE2195"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O98" activeCellId="32" sqref="B1899 B1910 B1919 B1928 B1935 B1939 B1941 B1950 B1959 B1973 B1982 B1991 B1993 B1997 B2007 B2021 B2031 B2035 B2038 B2050 B2065 B2078 B2095 B2105 B2114 B2123 B2132 B2141 B2143 B2152 B2154 B2171 O98"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1812" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1820" activeCellId="32" sqref="B1899 B1910 B1919 B1928 B1935 B1939 B1941 B1950 B1959 B1973 B1982 B1991 B1993 B1997 B2007 B2021 B2031 B2035 B2038 B2050 B2065 B2078 B2095 B2105 B2114 B2123 B2132 B2141 B2143 B2152 B2154 B2171 C1820"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Tests/UnderReview/Sorghum/obs/DailyObserved.xlsx
+++ b/Tests/UnderReview/Sorghum/obs/DailyObserved.xlsx
@@ -196,244 +196,244 @@
     <t xml:space="preserve">TPLA</t>
   </si>
   <si>
-    <t xml:space="preserve">IcrisatBW5CvM35-1FertHighIrrigHigh</t>
+    <t xml:space="preserve">BW5CvM35-1FertHighIrrigHigh</t>
   </si>
   <si>
-    <t xml:space="preserve">IcrisatBW5CvCSH13RFertHighIrrigHigh</t>
+    <t xml:space="preserve">BW5CvCSH13RFertHighIrrigHigh</t>
   </si>
   <si>
-    <t xml:space="preserve">IcrisatBW5CvAtx623xRTX430FertHighIrrigHigh</t>
+    <t xml:space="preserve">BW5CvAtx623xRTX430FertHighIrrigHigh</t>
   </si>
   <si>
-    <t xml:space="preserve">IcrisatBW5CvQL41xQL36FertHighIrrigHigh</t>
+    <t xml:space="preserve">BW5CvQL41xQL36FertHighIrrigHigh</t>
   </si>
   <si>
-    <t xml:space="preserve">IcrisatBW5CvM35-1FertMedIrrigLow</t>
+    <t xml:space="preserve">BW5CvM35-1FertMedIrrigLow</t>
   </si>
   <si>
-    <t xml:space="preserve">IcrisatBW5CvCSH13RFertMedIrrigLow</t>
+    <t xml:space="preserve">BW5CvCSH13RFertMedIrrigLow</t>
   </si>
   <si>
-    <t xml:space="preserve">IcrisatBW5CvAtx623xRTX430FertMedIrrigLow</t>
+    <t xml:space="preserve">BW5CvAtx623xRTX430FertMedIrrigLow</t>
   </si>
   <si>
-    <t xml:space="preserve">IcrisatBW5CvQL41xQL36FertMedIrrigLow</t>
+    <t xml:space="preserve">BW5CvQL41xQL36FertMedIrrigLow</t>
   </si>
   <si>
-    <t xml:space="preserve">IcrisatBW5CvM35-1FertLowIrrigLow</t>
+    <t xml:space="preserve">BW5CvM35-1FertLowIrrigLow</t>
   </si>
   <si>
-    <t xml:space="preserve">IcrisatBW5CvCSH13RFertLowIrrigLow</t>
+    <t xml:space="preserve">BW5CvCSH13RFertLowIrrigLow</t>
   </si>
   <si>
-    <t xml:space="preserve">IcrisatBW5CvAtx623xRTX430FertLowIrrigLow</t>
+    <t xml:space="preserve">BW5CvAtx623xRTX430FertLowIrrigLow</t>
   </si>
   <si>
-    <t xml:space="preserve">IcrisatBW5CvQL41xQL36FertLowIrrigLow</t>
+    <t xml:space="preserve">BW5CvQL41xQL36FertLowIrrigLow</t>
   </si>
   <si>
-    <t xml:space="preserve">IcrisatBW8CvCSH13RFertHighIrrigOn</t>
+    <t xml:space="preserve">BW8CvCSH13RFertHighIrrigOn</t>
   </si>
   <si>
-    <t xml:space="preserve">IcrisatBW8CvM35-1FertHighIrrigOn</t>
+    <t xml:space="preserve">BW8CvM35-1FertHighIrrigOn</t>
   </si>
   <si>
-    <t xml:space="preserve">IcrisatBW8CvAtx623xRTx430FertHighIrrigOn</t>
+    <t xml:space="preserve">BW8CvAtx623xRTx430FertHighIrrigOn</t>
   </si>
   <si>
-    <t xml:space="preserve">IcrisatBW8CvQL41xQL36FertHighIrrigOn</t>
+    <t xml:space="preserve">BW8CvQL41xQL36FertHighIrrigOn</t>
   </si>
   <si>
-    <t xml:space="preserve">IcrisatBW8CvM35-1FertMedIrrigOff</t>
+    <t xml:space="preserve">BW8CvM35-1FertMedIrrigOff</t>
   </si>
   <si>
-    <t xml:space="preserve">IcrisatBW8CvCSH13RFertMedIrrigOff</t>
+    <t xml:space="preserve">BW8CvCSH13RFertMedIrrigOff</t>
   </si>
   <si>
-    <t xml:space="preserve">IcrisatBW8CvATX623xRTX430FertMedIrrigOff</t>
+    <t xml:space="preserve">BW8CvATX623xRTX430FertMedIrrigOff</t>
   </si>
   <si>
-    <t xml:space="preserve">IcrisatBW8CvQL41xQL36FertMedIrrigOff</t>
+    <t xml:space="preserve">BW8CvQL41xQL36FertMedIrrigOff</t>
   </si>
   <si>
-    <t xml:space="preserve">IcrisatBW8CvM35-1FertLowIrrigOff</t>
+    <t xml:space="preserve">BW8CvM35-1FertLowIrrigOff</t>
   </si>
   <si>
-    <t xml:space="preserve">IcrisatBW8CvCSH13RFertLowIrrigOff</t>
+    <t xml:space="preserve">BW8CvCSH13RFertLowIrrigOff</t>
   </si>
   <si>
-    <t xml:space="preserve">IcrisatBW8CvATX623xRTX430FertLowIrrigOff</t>
+    <t xml:space="preserve">BW8CvATX623xRTX430FertLowIrrigOff</t>
   </si>
   <si>
-    <t xml:space="preserve">IcrisatBW8CvQL41xQL36FertLowIrrigOff</t>
+    <t xml:space="preserve">BW8CvQL41xQL36FertLowIrrigOff</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermitage1996FertHighIrrigOnCvBuster</t>
+    <t xml:space="preserve">HE1-4FertHighIrrigOnCvBuster</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermitage1996FertHighIrrigOnCvQL41xQL36</t>
+    <t xml:space="preserve">HE1-4FertHighIrrigOnCvQL41xQL36</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermitage1996FertHighIrrigOnCvM351</t>
+    <t xml:space="preserve">HE1-4FertHighIrrigOnCvM351</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermitage1996FertLowIrrigOnCvQL41xQL36</t>
+    <t xml:space="preserve">HE1-4FertLowIrrigOnCvQL41xQL36</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermitage1996FertLowIrrigOnCvBuster</t>
+    <t xml:space="preserve">HE1-4FertLowIrrigOnCvBuster</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermitage1996FertLowIrrigOnCvM351</t>
+    <t xml:space="preserve">HE1-4FertLowIrrigOnCvM351</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermitage1996FertHighIrrigOffCvQL41xQL36</t>
+    <t xml:space="preserve">HE1-4FertHighIrrigOffCvQL41xQL36</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermitage1996FertHighIrrigOffCvBuster</t>
+    <t xml:space="preserve">HE1-4FertHighIrrigOffCvBuster</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermitage1996FertHighIrrigOffCvM351</t>
+    <t xml:space="preserve">HE1-4FertHighIrrigOffCvM351</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermitage1996FertLowIrrigOffCvQL41xQL36</t>
+    <t xml:space="preserve">HE1-4FertLowIrrigOffCvQL41xQL36</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermitage1996FertLowIrrigOffCvBuster</t>
+    <t xml:space="preserve">HE1-4FertLowIrrigOffCvBuster</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermitage1996FertLowIrrigOffCvM351</t>
+    <t xml:space="preserve">HE1-4FertLowIrrigOffCvM351</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermitage1997FertHighIrrigHighCvBuster</t>
+    <t xml:space="preserve">HE5-8FertHighIrrigHighCvBuster</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermitage1997FertHighIrrigHighCvM351</t>
+    <t xml:space="preserve">HE5-8FertHighIrrigHighCvM351</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermitage1997FertHighIrrigHighCvCSH13R</t>
+    <t xml:space="preserve">HE5-8FertHighIrrigHighCvCSH13R</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermitage1997FertLowIrrigHighCvBuster</t>
+    <t xml:space="preserve">HE5-8FertLowIrrigHighCvBuster</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermitage1997FertLowIrrigHighCvM351</t>
+    <t xml:space="preserve">HE5-8FertLowIrrigHighCvM351</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermitage1997FertLowIrrigHighCvCSH13R</t>
+    <t xml:space="preserve">HE5-8FertLowIrrigHighCvCSH13R</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermitage1997FertHighIrrigLowCvBuster</t>
+    <t xml:space="preserve">HE5-8FertHighIrrigLowCvBuster</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermitage1997FertHighIrrigLowCvM351</t>
+    <t xml:space="preserve">HE5-8FertHighIrrigLowCvM351</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermitage1997FertHighIrrigLowCvCSH13R</t>
+    <t xml:space="preserve">HE5-8FertHighIrrigLowCvCSH13R</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermitage1997FertLowIrrigLowCvBuster</t>
+    <t xml:space="preserve">HE5-8FertLowIrrigLowCvBuster</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermitage1997FertLowIrrigLowCvM351</t>
+    <t xml:space="preserve">HE5-8FertLowIrrigLowCvM351</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermitage1997FertLowIrrigLowCvCSH13R</t>
+    <t xml:space="preserve">HE5-8FertLowIrrigLowCvCSH13R</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1995FertLowirrigOffCvBuster</t>
+    <t xml:space="preserve">LE13FertLowirrigOffCvBuster</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1995FertHighIrrigOffCvBuster</t>
+    <t xml:space="preserve">LE13FertHighIrrigOffCvBuster</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1995FertHighIrrigOnCvBuster</t>
+    <t xml:space="preserve">LE13FertHighIrrigOnCvBuster</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1995FertLowIrrigOffCvM351</t>
+    <t xml:space="preserve">LE13FertLowIrrigOffCvM351</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1995FertHighIrrigOffCvM351</t>
+    <t xml:space="preserve">LE13FertHighIrrigOffCvM351</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1995FertHighIrrigOnCvM351</t>
+    <t xml:space="preserve">LE13FertHighIrrigOnCvM351</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1996EarlyCvBuster</t>
+    <t xml:space="preserve">LE14CvBuster</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1996EarlyCvQL41xQL36</t>
+    <t xml:space="preserve">LE14CvQL41xQL36</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1996EarlyCvM351</t>
+    <t xml:space="preserve">LE14CvM351</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1996LateCvBuster</t>
+    <t xml:space="preserve">LE15CvBuster</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1996LateCvQL41xQL36</t>
+    <t xml:space="preserve">LE15CvQL41xQL36</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1996LateCvM351</t>
+    <t xml:space="preserve">LE15CvM351</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1997LateCvBuster</t>
+    <t xml:space="preserve">LE17CvBuster</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1997LateCvCSH13R</t>
+    <t xml:space="preserve">LE17CvCSH13R</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1997LateCvM351</t>
+    <t xml:space="preserve">LE17CvM351</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1998FertMedCvBuster</t>
+    <t xml:space="preserve">LE19FertMedCvBuster</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1998FertLowCvCSH13R</t>
+    <t xml:space="preserve">LE19FertLowCvCSH13R</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1998FertOffCvBuster</t>
+    <t xml:space="preserve">LE19FertOffCvBuster</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1998FertLowCvBuster</t>
+    <t xml:space="preserve">LE19FertLowCvBuster</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1998FertHighCvBuster</t>
+    <t xml:space="preserve">LE19FertHighCvBuster</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1998FertOffCvCSH13R</t>
+    <t xml:space="preserve">LE19FertOffCvCSH13R</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1998FertMedCvCSH13R</t>
+    <t xml:space="preserve">LE19FertMedCvCSH13R</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1998FertHighCvCSH13R</t>
+    <t xml:space="preserve">LE19FertHighCvCSH13R</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1999CvA35xQL36FertLow</t>
+    <t xml:space="preserve">LE21CvA35xQL36FertLow</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1999CvA35xQL36FertHigh</t>
+    <t xml:space="preserve">LE21CvA35xQL36FertHigh</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1999CvCSH13RFertLow</t>
+    <t xml:space="preserve">LE21CvCSH13RFertLow</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1999CvQL39xQL36FertLow</t>
+    <t xml:space="preserve">LE21CvQL39xQL36FertLow</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1999CvCSH13RFertMed</t>
+    <t xml:space="preserve">LE21CvCSH13RFertMed</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1999CvA35xQL36FertMed</t>
+    <t xml:space="preserve">LE21CvA35xQL36FertMed</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1999CvQL39xQL36FertMed</t>
+    <t xml:space="preserve">LE21CvQL39xQL36FertMed</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1999CvQL39xQL36FertHigh</t>
+    <t xml:space="preserve">LE21CvQL39xQL36FertHigh</t>
   </si>
   <si>
-    <t xml:space="preserve">Lawes1999CvCSH13RFertHigh</t>
+    <t xml:space="preserve">LE21CvCSH13RFertHigh</t>
   </si>
 </sst>
 </file>
@@ -607,8 +607,8 @@
   </sheetPr>
   <dimension ref="A1:BE2195"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1812" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1820" activeCellId="32" sqref="B1899 B1910 B1919 B1928 B1935 B1939 B1941 B1950 B1959 B1973 B1982 B1991 B1993 B1997 B2007 B2021 B2031 B2035 B2038 B2050 B2065 B2078 B2095 B2105 B2114 B2123 B2132 B2141 B2143 B2152 B2154 B2171 C1820"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A955" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B982" activeCellId="1" sqref="B1890:B2195 B982"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -972,7 +972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>35373</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>6.889</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>35373</v>
       </c>

--- a/Tests/UnderReview/Sorghum/obs/DailyObserved.xlsx
+++ b/Tests/UnderReview/Sorghum/obs/DailyObserved.xlsx
@@ -268,76 +268,76 @@
     <t xml:space="preserve">BW8CvQL41xQL36FertLowIrrigOff</t>
   </si>
   <si>
-    <t xml:space="preserve">HE1-4FertHighIrrigOnCvBuster</t>
+    <t xml:space="preserve">HE1CultivarBuster</t>
   </si>
   <si>
-    <t xml:space="preserve">HE1-4FertHighIrrigOnCvQL41xQL36</t>
+    <t xml:space="preserve">HE1CultivarQL41xQL36</t>
   </si>
   <si>
-    <t xml:space="preserve">HE1-4FertHighIrrigOnCvM351</t>
+    <t xml:space="preserve">HE1CultivarM35-1</t>
   </si>
   <si>
-    <t xml:space="preserve">HE1-4FertLowIrrigOnCvQL41xQL36</t>
+    <t xml:space="preserve">HE2CultivarQL41xQL36</t>
   </si>
   <si>
-    <t xml:space="preserve">HE1-4FertLowIrrigOnCvBuster</t>
+    <t xml:space="preserve">HE2CultivarBuster</t>
   </si>
   <si>
-    <t xml:space="preserve">HE1-4FertLowIrrigOnCvM351</t>
+    <t xml:space="preserve">HE2CultivarM35-1</t>
   </si>
   <si>
-    <t xml:space="preserve">HE1-4FertHighIrrigOffCvQL41xQL36</t>
+    <t xml:space="preserve">HE3CultivarQL41xQL36</t>
   </si>
   <si>
-    <t xml:space="preserve">HE1-4FertHighIrrigOffCvBuster</t>
+    <t xml:space="preserve">HE3CultivarBuster</t>
   </si>
   <si>
-    <t xml:space="preserve">HE1-4FertHighIrrigOffCvM351</t>
+    <t xml:space="preserve">HE3CultivarM35-1</t>
   </si>
   <si>
-    <t xml:space="preserve">HE1-4FertLowIrrigOffCvQL41xQL36</t>
+    <t xml:space="preserve">HE4CultivarQL41xQL36</t>
   </si>
   <si>
-    <t xml:space="preserve">HE1-4FertLowIrrigOffCvBuster</t>
+    <t xml:space="preserve">HE4CultivarBuster</t>
   </si>
   <si>
-    <t xml:space="preserve">HE1-4FertLowIrrigOffCvM351</t>
+    <t xml:space="preserve">HE4CultivarM35-1</t>
   </si>
   <si>
-    <t xml:space="preserve">HE5-8FertHighIrrigHighCvBuster</t>
+    <t xml:space="preserve">HE5CultivarBuster</t>
   </si>
   <si>
-    <t xml:space="preserve">HE5-8FertHighIrrigHighCvM351</t>
+    <t xml:space="preserve">HE5CultivarM35-1</t>
   </si>
   <si>
-    <t xml:space="preserve">HE5-8FertHighIrrigHighCvCSH13R</t>
+    <t xml:space="preserve">HE5CultivarCSH13R</t>
   </si>
   <si>
-    <t xml:space="preserve">HE5-8FertLowIrrigHighCvBuster</t>
+    <t xml:space="preserve">HE6CultivarBuster</t>
   </si>
   <si>
-    <t xml:space="preserve">HE5-8FertLowIrrigHighCvM351</t>
+    <t xml:space="preserve">HE6CultivarM35-1</t>
   </si>
   <si>
-    <t xml:space="preserve">HE5-8FertLowIrrigHighCvCSH13R</t>
+    <t xml:space="preserve">HE6CultivarCSH13R</t>
   </si>
   <si>
-    <t xml:space="preserve">HE5-8FertHighIrrigLowCvBuster</t>
+    <t xml:space="preserve">HE7CultivarBuster</t>
   </si>
   <si>
-    <t xml:space="preserve">HE5-8FertHighIrrigLowCvM351</t>
+    <t xml:space="preserve">HE7CultivarM35-1</t>
   </si>
   <si>
-    <t xml:space="preserve">HE5-8FertHighIrrigLowCvCSH13R</t>
+    <t xml:space="preserve">HE7CultivarCSH13R</t>
   </si>
   <si>
-    <t xml:space="preserve">HE5-8FertLowIrrigLowCvBuster</t>
+    <t xml:space="preserve">HE8CultivarBuster</t>
   </si>
   <si>
-    <t xml:space="preserve">HE5-8FertLowIrrigLowCvM351</t>
+    <t xml:space="preserve">HE8CultivarM35-1</t>
   </si>
   <si>
-    <t xml:space="preserve">HE5-8FertLowIrrigLowCvCSH13R</t>
+    <t xml:space="preserve">HE8CultivarCSH13R</t>
   </si>
   <si>
     <t xml:space="preserve">LE13FertLowirrigOffCvBuster</t>
@@ -607,8 +607,8 @@
   </sheetPr>
   <dimension ref="A1:BE2195"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A955" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B982" activeCellId="1" sqref="B1890:B2195 B982"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A877" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B900" activeCellId="24" sqref="B1269 B1271 B1274 B1277 B1280 B1283 B1286:B1287 B1292 B1295 B1302 B1308 B1312 B1316 B1319:B1320 B1323 B1325 B1328 B1332 B1336 B1338 B1340 B1343 B1345 B1347 B900"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Tests/UnderReview/Sorghum/obs/DailyObserved.xlsx
+++ b/Tests/UnderReview/Sorghum/obs/DailyObserved.xlsx
@@ -364,7 +364,7 @@
     <t xml:space="preserve">LE14CvQL41xQL36</t>
   </si>
   <si>
-    <t xml:space="preserve">LE14CvM351</t>
+    <t xml:space="preserve">LE14CvM35-1</t>
   </si>
   <si>
     <t xml:space="preserve">LE15CvBuster</t>
@@ -373,7 +373,7 @@
     <t xml:space="preserve">LE15CvQL41xQL36</t>
   </si>
   <si>
-    <t xml:space="preserve">LE15CvM351</t>
+    <t xml:space="preserve">LE15CvM35-1</t>
   </si>
   <si>
     <t xml:space="preserve">LE17CvBuster</t>
@@ -382,7 +382,7 @@
     <t xml:space="preserve">LE17CvCSH13R</t>
   </si>
   <si>
-    <t xml:space="preserve">LE17CvM351</t>
+    <t xml:space="preserve">LE17CvM35-1</t>
   </si>
   <si>
     <t xml:space="preserve">LE19FertMedCvBuster</t>
@@ -607,8 +607,8 @@
   </sheetPr>
   <dimension ref="A1:BE2195"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A877" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B900" activeCellId="24" sqref="B1269 B1271 B1274 B1277 B1280 B1283 B1286:B1287 B1292 B1295 B1302 B1308 B1312 B1316 B1319:B1320 B1323 B1325 B1328 B1332 B1336 B1338 B1340 B1343 B1345 B1347 B900"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1455" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I1486" activeCellId="20" sqref="B1639 B1642 B1645 B1651 B1654 B1657 B1660 B1663 B1666 B1670 B1674 B1677 B1679:B1680 B1682 B1685 B1688 B1691 B1694 B1698 B1700:B1702 I1486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
